--- a/doc/translations/opencvr-translations.xlsx
+++ b/doc/translations/opencvr-translations.xlsx
@@ -1,983 +1,1873 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="454">
   <si>
     <t>English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Chinese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Russian</t>
   </si>
   <si>
     <t>1mins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>分钟</t>
+    </r>
+  </si>
+  <si>
+    <t>1 minuto</t>
+  </si>
+  <si>
+    <t>1 минута /(1 мин.)</t>
   </si>
   <si>
     <t>3mins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>分钟</t>
+    </r>
+  </si>
+  <si>
+    <t>2 minutos</t>
+  </si>
+  <si>
+    <t>3 минуты/(3 мин.)</t>
   </si>
   <si>
     <t>40s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portuguese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>秒</t>
+    </r>
+  </si>
+  <si>
+    <t>40 segundos</t>
+  </si>
+  <si>
+    <t>40 сек.</t>
   </si>
   <si>
     <t>5mins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>分钟</t>
+    </r>
+  </si>
+  <si>
+    <t>5 minutos</t>
+  </si>
+  <si>
+    <t>5 минут /(5 мин.)</t>
   </si>
   <si>
     <t>About OpenCVR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于 OpenCVR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">关于 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OpenCVR</t>
+    </r>
+  </si>
+  <si>
+    <t>Sobre Opencvr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Об OpenCVR </t>
   </si>
   <si>
     <t>Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adicionar</t>
+  </si>
+  <si>
+    <t>Добавить</t>
   </si>
   <si>
     <t>All Day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todos os Dias</t>
+  </si>
+  <si>
+    <t>Все дни</t>
   </si>
   <si>
     <t>Apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aplicar</t>
+  </si>
+  <si>
+    <t>Принять</t>
   </si>
   <si>
     <t>Auto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto </t>
+  </si>
+  <si>
+    <t>Авто</t>
   </si>
   <si>
     <t>Auto login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Авто регистрация</t>
   </si>
   <si>
     <t>Camera Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>摄像机添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adicionar Câmera</t>
+  </si>
+  <si>
+    <t>Добавить камеру  /(Доб. Камеру)</t>
   </si>
   <si>
     <t>Camera List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>摄像机列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lista de Câmeras</t>
+  </si>
+  <si>
+    <t>Список камер</t>
   </si>
   <si>
     <t>Camera Name:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄像机名称:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>摄像机名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Nome da Câmera</t>
+  </si>
+  <si>
+    <t>Имя камеры</t>
   </si>
   <si>
     <t>Camera Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>摄像机搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busca de Câmera</t>
+  </si>
+  <si>
+    <t>Поиск камеры</t>
   </si>
   <si>
     <t>Cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancelar</t>
+  </si>
+  <si>
+    <t>Отменить</t>
   </si>
   <si>
     <t>Change Password Failed …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>更改密码失败…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Falha na mudança de senha...</t>
+  </si>
+  <si>
+    <t>Смена пароля не удалась</t>
   </si>
   <si>
     <t>Channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canal</t>
+  </si>
+  <si>
+    <t>Канал</t>
   </si>
   <si>
     <t>Clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>清除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limpar</t>
+  </si>
+  <si>
+    <t>Очистить</t>
   </si>
   <si>
     <t>Client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Клиент</t>
   </si>
   <si>
     <t>Close</t>
   </si>
   <si>
     <t>关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fechar</t>
+  </si>
+  <si>
+    <t>Закрыть</t>
   </si>
   <si>
     <t>Configurations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>Configurações</t>
+  </si>
+  <si>
+    <t>Конфигурация</t>
   </si>
   <si>
     <t>Console</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>终端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Консоль</t>
   </si>
   <si>
     <t>Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controle</t>
+  </si>
+  <si>
+    <t>Управление</t>
   </si>
   <si>
     <t>CPU: %1% RAM: %2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器: %1% 内存: %2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>处理器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: %1% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: %2%</t>
+    </r>
+  </si>
+  <si>
+    <t>ЦПУ:%1% ОЗУ%2%</t>
   </si>
   <si>
     <t>Current Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senha corrente</t>
+  </si>
+  <si>
+    <t>Текущий пароль</t>
   </si>
   <si>
     <t>Dashboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>控制台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Painel de Controle</t>
+  </si>
+  <si>
+    <t>Панель управления</t>
   </si>
   <si>
     <t>Delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apagar</t>
+  </si>
+  <si>
+    <t>Удалить</t>
   </si>
   <si>
     <t>Description:</t>
   </si>
   <si>
-    <t>描述:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Descrição:</t>
+  </si>
+  <si>
+    <t>Описание</t>
   </si>
   <si>
     <t>Disk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>磁盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Диск</t>
   </si>
   <si>
     <t>DISPLAY 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>显示器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Tela 1</t>
+  </si>
+  <si>
+    <t>Экран 1</t>
   </si>
   <si>
     <t>DISPLAY 2</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>显示器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Tela 2</t>
+  </si>
+  <si>
+    <t>Экран 2</t>
+  </si>
+  <si>
     <t>DISPLAY 3</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>显示器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Tela 3</t>
+  </si>
+  <si>
+    <t>Экран 3</t>
+  </si>
+  <si>
     <t>DISPLAY 4</t>
   </si>
   <si>
-    <t>显示器1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示器2</t>
-  </si>
-  <si>
-    <t>显示器3</t>
-  </si>
-  <si>
-    <t>显示器4</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>显示器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>Tela 4</t>
+  </si>
+  <si>
+    <t>Экран 4</t>
   </si>
   <si>
     <t>Drag and drop camera to here …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拖放到这里…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arraste e solte a câmera aqui...</t>
+  </si>
+  <si>
+    <t>Перетащите камеру на …</t>
   </si>
   <si>
     <t>Emap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电子地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Электронная карта /(Эл. Карта)</t>
   </si>
   <si>
     <t>Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Habilitar</t>
+  </si>
+  <si>
+    <t>Разрешить</t>
   </si>
   <si>
     <t>End time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tempo Final</t>
+  </si>
+  <si>
+    <t>Время окончания</t>
   </si>
   <si>
     <t>Event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Событие</t>
   </si>
   <si>
     <t>Event Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busca de Evento</t>
+  </si>
+  <si>
+    <t>Поиск события</t>
   </si>
   <si>
     <t>Exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sair</t>
+  </si>
+  <si>
+    <t>Выход</t>
   </si>
   <si>
     <t>Export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exportar</t>
+  </si>
+  <si>
+    <t>Выгрузить</t>
   </si>
   <si>
     <t>Export task is in the dashboard, you can view the process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可以在控制台中查看导出进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exportar as tarefas no painel de controle, você poderá ver o processo</t>
+  </si>
+  <si>
+    <t>Выгрузка задач в панели управления, можно наблюдать процесс</t>
   </si>
   <si>
     <t>FILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arquivo</t>
+  </si>
+  <si>
+    <t>Файл</t>
   </si>
   <si>
     <t>File Name:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>文件名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Nome do Arquivo</t>
+  </si>
+  <si>
+    <t>Имя файла</t>
   </si>
   <si>
     <t>Filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filtro</t>
+  </si>
+  <si>
+    <t>Фильтр</t>
   </si>
   <si>
     <t>Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浮动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutuar</t>
+  </si>
+  <si>
+    <t>Плавающий /(Плавающее)</t>
   </si>
   <si>
     <t>Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空闲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Livre</t>
+  </si>
+  <si>
+    <t>Свободно</t>
   </si>
   <si>
     <t>Fri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星期五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sexta</t>
+  </si>
+  <si>
+    <t>Три</t>
   </si>
   <si>
     <t>Help</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>帮助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajuda</t>
+  </si>
+  <si>
+    <t>Помощь</t>
   </si>
   <si>
     <t>Host ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主机标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Информация</t>
   </si>
   <si>
     <t>IP Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+  </si>
+  <si>
+    <t>Endereço IP</t>
+  </si>
+  <si>
+    <t>IP Адрес</t>
   </si>
   <si>
     <t>IP Address:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Endereço IP:</t>
+  </si>
+  <si>
+    <t>IP Адрес:</t>
   </si>
   <si>
     <t>Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linguagem</t>
+  </si>
+  <si>
+    <t>Язык</t>
   </si>
   <si>
     <t>Layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>布局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Макет</t>
   </si>
   <si>
     <t>License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>版权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Licensa</t>
+  </si>
+  <si>
+    <t>Лицензия</t>
   </si>
   <si>
     <t>List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Список</t>
   </si>
   <si>
     <t>Load eMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加载电子地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carregar Emap</t>
+  </si>
+  <si>
+    <t>Загрузить эл. Карту</t>
   </si>
   <si>
     <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogIn</t>
   </si>
   <si>
     <t>Logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogOut</t>
   </si>
   <si>
     <t>Map Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地图名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nome do Mapa</t>
+  </si>
+  <si>
+    <t>Имя карты</t>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Модель</t>
   </si>
   <si>
     <t>Mon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星期一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Segunda</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Имя</t>
   </si>
   <si>
     <t>New</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Novo</t>
+  </si>
+  <si>
+    <t>Новый</t>
   </si>
   <si>
     <t>New Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nova Senha</t>
+  </si>
+  <si>
+    <t>Новsй пароль</t>
   </si>
   <si>
     <t>off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Выключить /(Выкл.)</t>
   </si>
   <si>
     <t>on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Включить /(Вкл.)</t>
   </si>
   <si>
     <t>OpenCVR Exit …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenCVR 退出…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">OpenCVR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>退出…</t>
+    </r>
+  </si>
+  <si>
+    <t>Sair do OpenCVR</t>
+  </si>
+  <si>
+    <t>Выход из OpenCVR</t>
   </si>
   <si>
     <t>OpenCVR Playback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenCVR 回放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">OpenCVR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>回放</t>
+    </r>
+  </si>
+  <si>
+    <t>OpenCVR Busca</t>
+  </si>
+  <si>
+    <t>Просмотр OpenCVR</t>
   </si>
   <si>
     <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Пароль</t>
   </si>
   <si>
     <t>Password not correct …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密码不正确…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senha incorreta</t>
+  </si>
+  <si>
+    <t>Пароль неправильный</t>
   </si>
   <si>
     <t>Play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>播放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Просмотр(play)</t>
   </si>
   <si>
     <t>Playback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Воспроизведение /(playback)</t>
   </si>
   <si>
     <t>Playback %1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回放 %1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">回放 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%1</t>
+    </r>
+  </si>
+  <si>
+    <t>Воспроизведение /(playback) %1</t>
   </si>
   <si>
     <t>Port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Porta</t>
+  </si>
+  <si>
+    <t>Порт</t>
   </si>
   <si>
     <t>Port:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Porta:</t>
+  </si>
+  <si>
+    <t>Порт:</t>
   </si>
   <si>
     <t>PTZ Panel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTZ面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PTZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>面板</t>
+    </r>
+  </si>
+  <si>
+    <t>PTZ Painel</t>
+  </si>
+  <si>
+    <t>Панель PTZ</t>
   </si>
   <si>
     <t>Recording</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>录像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gravando</t>
+  </si>
+  <si>
+    <t>Запись</t>
   </si>
   <si>
     <t>Records</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>录像记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gravações</t>
+  </si>
+  <si>
+    <t>Записи</t>
   </si>
   <si>
     <t>Repeat Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>重复密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repita a senha</t>
+  </si>
+  <si>
+    <t>Повторите пароль</t>
   </si>
   <si>
     <t>RTSP Address:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTSP地址:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RTSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Endereço RTSP:</t>
+  </si>
+  <si>
+    <t>Адрес RTSP:</t>
   </si>
   <si>
     <t>Sat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星期六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sabado</t>
+  </si>
+  <si>
+    <t>Суббота</t>
   </si>
   <si>
     <t>Save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salvar</t>
+  </si>
+  <si>
+    <t>Сохранить</t>
   </si>
   <si>
     <t>Sched</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agenda</t>
   </si>
   <si>
     <t>Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busca</t>
+  </si>
+  <si>
+    <t>Поиск</t>
   </si>
   <si>
     <t>Search is In Processing …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜索正在进行中…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processando Busca ..</t>
+  </si>
+  <si>
+    <t>Поиск в процессе…</t>
   </si>
   <si>
     <t>Search is not Started …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜索没有开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busca parada</t>
+  </si>
+  <si>
+    <t>Поиск не стартовал…</t>
   </si>
   <si>
     <t>Select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selecionar</t>
+  </si>
+  <si>
+    <t>Выбор</t>
   </si>
   <si>
     <t>Select Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>选择地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selecionar Mapa</t>
+  </si>
+  <si>
+    <t>Выбор карты</t>
   </si>
   <si>
     <t>Server Based Motion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服务器运动检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servidor baseado em movimento</t>
+  </si>
+  <si>
+    <t>Детектор движения на сервере</t>
   </si>
   <si>
     <t>Setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuração</t>
+  </si>
+  <si>
+    <t>Настройка</t>
   </si>
   <si>
     <t>Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Início</t>
+  </si>
+  <si>
+    <t>Старт</t>
   </si>
   <si>
     <t>Start time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tempo de Início</t>
+  </si>
+  <si>
+    <t>Время старта</t>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Статус</t>
   </si>
   <si>
     <t>Stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parar</t>
+  </si>
+  <si>
+    <t>Стоп</t>
   </si>
   <si>
     <t>Stor Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>存储添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adicionar Arm</t>
+  </si>
+  <si>
+    <t>Добавить Stor</t>
   </si>
   <si>
     <t>Stor List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>存储列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Listar Arm</t>
+  </si>
+  <si>
+    <t>Список Stor</t>
   </si>
   <si>
     <t>Sun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星期天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
   </si>
   <si>
     <t>Tabbed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嵌入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abas</t>
+  </si>
+  <si>
+    <t>Вкладки</t>
   </si>
   <si>
     <t>Task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tarefa</t>
+  </si>
+  <si>
+    <t>Задача</t>
   </si>
   <si>
     <t>Thu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星期四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>Четверг</t>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Всего</t>
   </si>
   <si>
     <t>Tue</t>
   </si>
   <si>
     <t>星期二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terça</t>
+  </si>
+  <si>
+    <t>Вторник</t>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Тип</t>
   </si>
   <si>
     <t>Update task list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>更新任务列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update lista de tarefas</t>
+  </si>
+  <si>
+    <t>Обновить список задач</t>
   </si>
   <si>
     <t>Username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nome de Usuário</t>
+  </si>
+  <si>
+    <t>Имя пользователя</t>
   </si>
   <si>
     <t>Username or Password not correct …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户名或密码不正确…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nome de Usuário ou  senha não está correta ...</t>
+  </si>
+  <si>
+    <t>Имя пользователя или пароль не правильные</t>
   </si>
   <si>
     <t>Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Versão</t>
+  </si>
+  <si>
+    <t>Версия</t>
   </si>
   <si>
     <t>Files(*.jpg *.jpeg *.png)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arquivos(*.jpg *.jpeg *.png)</t>
+  </si>
+  <si>
+    <t>Файлы(*.jpg *.jpeg *.png)</t>
   </si>
   <si>
     <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vista</t>
+  </si>
+  <si>
+    <t>Окно</t>
   </si>
   <si>
     <t>View Configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>视图配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuranção da Vista</t>
+  </si>
+  <si>
+    <t>Конфигурация окна</t>
   </si>
   <si>
     <t>View List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>视图列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lista da Vista</t>
+  </si>
+  <si>
+    <t>Список окон</t>
   </si>
   <si>
     <t>View Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>视图名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nome da vista</t>
+  </si>
+  <si>
+    <t>Имя окна</t>
   </si>
   <si>
     <t>Wed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星期三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quarta</t>
+  </si>
+  <si>
+    <t>Среда</t>
   </si>
   <si>
     <t>Welcome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>欢迎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bem Vindo</t>
+  </si>
+  <si>
+    <t>Добро пожаловать</t>
   </si>
   <si>
     <t>Welcome OpenCVR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎 OpenCVR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">欢迎 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OpenCVR</t>
+    </r>
+  </si>
+  <si>
+    <t>Bem Vindo OpenCVR</t>
+  </si>
+  <si>
+    <t>Добро пожаловать в OpenCVR</t>
   </si>
   <si>
     <t>Work Day</t>
   </si>
   <si>
     <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dia de trabalho</t>
+  </si>
+  <si>
+    <t>Рабочие дни</t>
+  </si>
+  <si>
+    <t>Расписание</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1027,21 +1917,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1049,7 +1942,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1072,39 +1965,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1183,189 +2076,165 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="35.375"/>
+    <col min="2" max="3" width="24.125"/>
+    <col min="4" max="4" width="36.375"/>
+    <col min="5" max="6" width="21.875"/>
+    <col min="7" max="7" width="19.625"/>
+    <col min="8" max="1025" width="9.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,1548 +2242,2022 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="33">
       <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="16.5">
       <c r="A33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="16.5">
       <c r="A34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="33">
       <c r="A35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="16.5">
       <c r="A36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="16.5">
       <c r="A40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="16.5">
       <c r="A41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="49.5">
       <c r="A43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="16.5">
       <c r="A44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="16.5">
       <c r="A45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="16.5">
       <c r="A46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="16.5">
       <c r="A47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="16.5">
       <c r="A48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="16.5">
       <c r="A49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="16.5">
       <c r="A50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="16.5">
       <c r="A51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="16.5">
       <c r="A52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="16.5">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="16.5">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="16.5">
       <c r="A55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="16.5">
       <c r="A56" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="16.5">
       <c r="A57" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="16.5">
       <c r="A58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="16.5">
       <c r="A59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="16.5">
       <c r="A60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="16.5">
       <c r="A61" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="16.5">
       <c r="A62" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="16.5">
       <c r="A63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="16.5">
       <c r="A64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="16.5">
       <c r="A65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="16.5">
       <c r="A66" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="16.5">
       <c r="A67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="16.5">
       <c r="A68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="16.5">
       <c r="A69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="16.5">
       <c r="A70" s="2" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="16.5">
       <c r="A71" s="2" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="16.5">
       <c r="A72" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="16.5">
       <c r="A73" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="16.5">
       <c r="A74" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="16.5">
       <c r="A75" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="16.5">
       <c r="A76" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="16.5">
       <c r="A77" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="16.5">
       <c r="A78" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="16.5">
       <c r="A79" s="2" t="s">
-        <v>154</v>
+        <v>293</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="16.5">
       <c r="A80" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="16.5">
       <c r="A81" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="16.5">
       <c r="A82" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="16.5">
       <c r="A83" s="2" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="16.5">
       <c r="A84" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="16.5">
       <c r="A85" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="16.5">
       <c r="A86" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="16.5">
       <c r="A87" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="16.5">
       <c r="A88" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="16.5">
       <c r="A89" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="16.5">
       <c r="A90" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="16.5">
       <c r="A91" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="33">
       <c r="A92" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="16.5">
       <c r="A93" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="16.5">
       <c r="A94" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="16.5">
       <c r="A95" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="16.5">
       <c r="A96" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="16.5">
       <c r="A97" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="16.5">
       <c r="A98" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="16.5">
       <c r="A99" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="16.5">
       <c r="A100" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="16.5">
       <c r="A101" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="16.5">
       <c r="A102" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="16.5">
       <c r="A103" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="16.5">
       <c r="A104" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="16.5">
       <c r="A105" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>397</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="16.5">
       <c r="A106" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="16.5">
       <c r="A107" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="16.5">
       <c r="A108" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="33">
       <c r="A109" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="16.5">
       <c r="A110" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="16.5">
       <c r="A111" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="16.5">
       <c r="A112" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="16.5">
       <c r="A113" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="16.5">
       <c r="A114" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="16.5">
       <c r="A115" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>436</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="16.5">
       <c r="A116" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="16.5">
       <c r="A117" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="16.5">
       <c r="A118" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>448</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="16.5">
       <c r="A119" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="16.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2923,7 +4266,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="16.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2932,7 +4275,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="16.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2941,7 +4284,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="16.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2950,7 +4293,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="16.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2959,7 +4302,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="16.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2968,7 +4311,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="16.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2977,7 +4320,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="16.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2986,7 +4329,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="16.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2995,7 +4338,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="16.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3004,7 +4347,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="16.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3013,7 +4356,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="16.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3022,7 +4365,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="16.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3031,7 +4374,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="16.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3040,7 +4383,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="16.5">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3049,7 +4392,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="16.5">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3058,7 +4401,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="16.5">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3067,7 +4410,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="16.5">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3076,7 +4419,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="16.5">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3085,7 +4428,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="16.5">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3094,7 +4437,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="16.5">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3103,7 +4446,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="16.5">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3112,7 +4455,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="16.5">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3121,7 +4464,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="16.5">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3130,7 +4473,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="16.5">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3139,7 +4482,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="16.5">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3148,7 +4491,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="16.5">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3157,7 +4500,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="16.5">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3166,7 +4509,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="16.5">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3175,7 +4518,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="16.5">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3184,7 +4527,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="16.5">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3193,7 +4536,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="16.5">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3202,7 +4545,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="16.5">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3211,7 +4554,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="16.5">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3220,7 +4563,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="16.5">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3229,7 +4572,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="16.5">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3238,7 +4581,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="16.5">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3247,7 +4590,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="16.5">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3256,7 +4599,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="16.5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3265,7 +4608,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="16.5">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3274,7 +4617,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="16.5">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3283,7 +4626,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="16.5">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3292,7 +4635,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="16.5">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3301,72 +4644,9 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-    </row>
-    <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>